--- a/Testdata/DataFile_LiveNMA_PROD.xlsx
+++ b/Testdata/DataFile_LiveNMA_PROD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD96ED81-8C65-4BCE-9681-CDE96400F92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56B16E2-9BE6-47EA-838F-AEED546F0B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -223,9 +223,6 @@
     <t>short_reference</t>
   </si>
   <si>
-    <t>Automation_Test_2022</t>
-  </si>
-  <si>
     <t>intervention</t>
   </si>
   <si>
@@ -266,6 +263,9 @@
   </si>
   <si>
     <t>WordReport-Takeda - MM Maintenance-Clinical-</t>
+  </si>
+  <si>
+    <t>Automation_Test_2023</t>
   </si>
 </sst>
 </file>
@@ -586,7 +586,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I4"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,16 +649,16 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
         <v>73</v>
       </c>
-      <c r="B2" t="s">
-        <v>74</v>
-      </c>
       <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
         <v>71</v>
-      </c>
-      <c r="D2" t="s">
-        <v>72</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -685,7 +685,7 @@
         <v>61</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -702,7 +702,7 @@
         <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -711,15 +711,15 @@
         <v>20</v>
       </c>
       <c r="L3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" t="s">
         <v>63</v>
-      </c>
-      <c r="M3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s">
         <v>21</v>
@@ -728,7 +728,7 @@
         <v>22</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M4">
         <v>201</v>
@@ -742,7 +742,7 @@
         <v>26</v>
       </c>
       <c r="L5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M5">
         <v>202</v>
@@ -756,7 +756,7 @@
         <v>28</v>
       </c>
       <c r="L6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M6">
         <v>0.5</v>
@@ -770,7 +770,7 @@
         <v>30</v>
       </c>
       <c r="L7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M7">
         <v>0.4</v>
@@ -784,7 +784,7 @@
         <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M8">
         <v>0.7</v>
@@ -798,7 +798,7 @@
         <v>34</v>
       </c>
       <c r="L9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M9">
         <v>0.05</v>

--- a/Testdata/DataFile_LiveNMA_PROD.xlsx
+++ b/Testdata/DataFile_LiveNMA_PROD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56B16E2-9BE6-47EA-838F-AEED546F0B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1AEE00-A591-4CB6-AC50-AB63D82AED4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -211,9 +211,6 @@
     <t>Validation study</t>
   </si>
   <si>
-    <t>Report-</t>
-  </si>
-  <si>
     <t>Add_Study_Data</t>
   </si>
   <si>
@@ -259,13 +256,16 @@
     <t>Takeda - MM Maintenance_radio_button</t>
   </si>
   <si>
-    <t>ExcelReport-Takeda - MM Maintenance-Clinical-</t>
-  </si>
-  <si>
     <t>WordReport-Takeda - MM Maintenance-Clinical-</t>
   </si>
   <si>
     <t>Automation_Test_2023</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-Takeda - MM Maintenance-Clinical-2023_</t>
+  </si>
+  <si>
+    <t>ExcelReport-Takeda-MM Maintenance-Clinical-</t>
   </si>
 </sst>
 </file>
@@ -586,7 +586,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="I2" sqref="I2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,24 +641,24 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" t="s">
         <v>59</v>
-      </c>
-      <c r="M1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
         <v>72</v>
       </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
       <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
         <v>70</v>
-      </c>
-      <c r="D2" t="s">
-        <v>71</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -673,7 +673,7 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
@@ -682,10 +682,10 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -702,7 +702,7 @@
         <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -711,15 +711,15 @@
         <v>20</v>
       </c>
       <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="s">
         <v>62</v>
-      </c>
-      <c r="M3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J4" t="s">
         <v>21</v>
@@ -728,7 +728,7 @@
         <v>22</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M4">
         <v>201</v>
@@ -742,7 +742,7 @@
         <v>26</v>
       </c>
       <c r="L5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M5">
         <v>202</v>
@@ -756,7 +756,7 @@
         <v>28</v>
       </c>
       <c r="L6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M6">
         <v>0.5</v>
@@ -770,7 +770,7 @@
         <v>30</v>
       </c>
       <c r="L7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M7">
         <v>0.4</v>
@@ -784,7 +784,7 @@
         <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M8">
         <v>0.7</v>
@@ -798,7 +798,7 @@
         <v>34</v>
       </c>
       <c r="L9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M9">
         <v>0.05</v>

--- a/Testdata/DataFile_LiveNMA_PROD.xlsx
+++ b/Testdata/DataFile_LiveNMA_PROD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1AEE00-A591-4CB6-AC50-AB63D82AED4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62687E61-BE24-48C7-AED2-773C99436433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -262,10 +262,10 @@
     <t>Automation_Test_2023</t>
   </si>
   <si>
-    <t>StandardExcelReport-Takeda - MM Maintenance-Clinical-2023_</t>
-  </si>
-  <si>
     <t>ExcelReport-Takeda-MM Maintenance-Clinical-</t>
+  </si>
+  <si>
+    <t>StandardExcelReport-Takeda-MM Maintenance-Clinical-2023_</t>
   </si>
 </sst>
 </file>
@@ -586,7 +586,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -673,7 +673,7 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
@@ -702,7 +702,7 @@
         <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
